--- a/Комаров, переработки--апрель-afl_rc-2016.xlsx
+++ b/Комаров, переработки--апрель-afl_rc-2016.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Фамилия</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12.5</t>
   </si>
 </sst>
 </file>
@@ -76,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,22 +108,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +462,7 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -449,44 +478,67 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>42464</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42471</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42485</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
